--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\JavaTraining-Batch1\Sunny\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>Did some practice of jBPM</t>
+  </si>
+  <si>
+    <t>Learn about spring boot, used of postman, get, post, delete &amp; put so on.</t>
+  </si>
+  <si>
+    <t>Learn about drools and how it works.</t>
   </si>
 </sst>
 </file>
@@ -284,21 +287,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Week1"/>
-      <sheetName val="Week2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,7 +567,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,27 +771,49 @@
       <c r="C15" s="4">
         <v>44383</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="7">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44384</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>Learn about drools and how it works.</t>
+  </si>
+  <si>
+    <t>Learn about Spring boot and so on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn about jBPM approval project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice all the things whatever learnt in training sessions &amp; do practice on jBPM </t>
+  </si>
+  <si>
+    <t>6 hrs</t>
   </si>
 </sst>
 </file>
@@ -567,7 +579,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,27 +826,49 @@
       <c r="C18" s="4">
         <v>44384</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="7">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44385</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>6 hrs</t>
+  </si>
+  <si>
+    <t>Java traning Class</t>
+  </si>
+  <si>
+    <t>Spring Examples so on,</t>
+  </si>
+  <si>
+    <t>7 hrs</t>
+  </si>
+  <si>
+    <t>Practice all the things whatever learnt &amp; working on approval jbpm project.</t>
+  </si>
+  <si>
+    <t>Learn about database &amp; hibernate process</t>
+  </si>
+  <si>
+    <t>Working on HR process project.</t>
+  </si>
+  <si>
+    <t>Practice all the things whatever learnt in training sessions.</t>
   </si>
 </sst>
 </file>
@@ -578,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,40 +890,76 @@
       <c r="C21" s="4">
         <v>44385</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="7">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44386</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
+      <c r="B26" s="7">
+        <v>9</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -142,6 +142,24 @@
   </si>
   <si>
     <t>Practice all the things whatever learnt in training sessions.</t>
+  </si>
+  <si>
+    <t>jBPM Project</t>
+  </si>
+  <si>
+    <t>Completed jBPM HR process project still working on REST API part.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jBPM </t>
+  </si>
+  <si>
+    <t>jBPM session &amp; some team discussion on rest api at all.</t>
+  </si>
+  <si>
+    <t>Interview questions</t>
+  </si>
+  <si>
+    <t>Preparing for interview questions and discussing it with team.</t>
   </si>
 </sst>
 </file>
@@ -599,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,35 +978,69 @@
       <c r="B26" s="7">
         <v>9</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="4">
+        <v>44389</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="D27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
+      <c r="B28" s="7">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44390</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="7">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4">
+        <v>44391</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Preparing for interview questions and discussing it with team.</t>
+  </si>
+  <si>
+    <t>Practicing rest part of jBPM &amp; practicing java whatever learnt in sessions.</t>
+  </si>
+  <si>
+    <t>Preparing for interview questions.</t>
+  </si>
+  <si>
+    <t>Practice of jBPM and Java.</t>
+  </si>
+  <si>
+    <t>Preparing for interview questions</t>
   </si>
 </sst>
 </file>
@@ -615,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F33"/>
+  <dimension ref="B1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,30 +1053,566 @@
       <c r="C30" s="4">
         <v>44391</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="D31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="7">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4">
+        <v>44392</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="D33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4">
+        <v>44393</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="7"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="7"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="7"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="7"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="7"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="7"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="7"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="7"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="7"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="7"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="7"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="7"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="7"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="7"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="7"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="7"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="7"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="7"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="7"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="7"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -172,6 +172,27 @@
   </si>
   <si>
     <t>Preparing for interview questions</t>
+  </si>
+  <si>
+    <t>Practicing Java &amp; jBpm</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>working on VMS project.</t>
+  </si>
+  <si>
+    <t>working on VMS project with team</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Java Phonebill assignment work</t>
+  </si>
+  <si>
+    <t>Java Phonebill assignment work and submitted it.</t>
   </si>
 </sst>
 </file>
@@ -629,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,111 +1134,233 @@
       <c r="C34" s="4">
         <v>44393</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="7">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4">
+        <v>44396</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
+      <c r="D36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="7">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4">
+        <v>44397</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="D38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
+      <c r="B39" s="7">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44398</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
+      <c r="B41" s="7">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4">
+        <v>44399</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
+      <c r="D42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
+      <c r="B43" s="7">
+        <v>19</v>
+      </c>
+      <c r="C43" s="4">
+        <v>44400</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
+      <c r="D44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
+      <c r="B45" s="7">
+        <v>20</v>
+      </c>
+      <c r="C45" s="4">
+        <v>44403</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
+      <c r="D46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
+      <c r="B47" s="7">
+        <v>21</v>
+      </c>
+      <c r="C47" s="4">
+        <v>44404</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
+      <c r="D48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="5"/>
+      <c r="B49" s="7">
+        <v>22</v>
+      </c>
+      <c r="C49" s="4">
+        <v>44405</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
@@ -1231,7 +1374,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
@@ -1245,7 +1388,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_July_2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="66">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -193,6 +193,36 @@
   </si>
   <si>
     <t>Java Phonebill assignment work and submitted it.</t>
+  </si>
+  <si>
+    <t>Project Review</t>
+  </si>
+  <si>
+    <t>Vms , Jbpm workflow &amp; task review</t>
+  </si>
+  <si>
+    <t>Practice all the things &amp; prepare some interview questions too.</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Core java revsion with team &amp; jbpm discussion.</t>
+  </si>
+  <si>
+    <t>Practice all the things whatever learnt .</t>
+  </si>
+  <si>
+    <t>Practice with team about Core java related.</t>
+  </si>
+  <si>
+    <t>Practice with and try to understand the things clearly</t>
+  </si>
+  <si>
+    <t>Session with team members and discussed about java , jbpm and int. questions.</t>
+  </si>
+  <si>
+    <t>Revised all the things and do setup of Cloud work place.</t>
   </si>
 </sst>
 </file>
@@ -650,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,58 +1391,118 @@
       <c r="C49" s="4">
         <v>44405</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
+      <c r="D49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
+      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
+      <c r="B51" s="7">
+        <v>23</v>
+      </c>
+      <c r="C51" s="4">
+        <v>44406</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
+      <c r="D52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
+      <c r="B53" s="7">
+        <v>24</v>
+      </c>
+      <c r="C53" s="4">
+        <v>44407</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="6"/>
+      <c r="D54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="6"/>
+      <c r="B55" s="7">
+        <v>25</v>
+      </c>
+      <c r="C55" s="4">
+        <v>44408</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
+      <c r="D56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
